--- a/TCM-VOTER/Protein_List.xlsx
+++ b/TCM-VOTER/Protein_List.xlsx
@@ -443,7 +443,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ARF5</t>
+          <t>COQ2</t>
         </is>
       </c>
     </row>

--- a/TCM-VOTER/Protein_List.xlsx
+++ b/TCM-VOTER/Protein_List.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,7 +443,1351 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>RTN4R</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DRD4</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CETP</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>SIRT1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MIOX</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>GLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NAMPT</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>GCK</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SULT1E1</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>NR3C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>LTF</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>RBP2</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>RBP1</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>APOB</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ODC1</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>APOA1</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>TTR</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CAT</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AKR1D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>UNG</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>SLC10A2</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ALOX12</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>RRM2B</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>APOE</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>CHRM3</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>HRH4</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>HTR2B</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>GABBR2</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>SCARB1</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ALDH2</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>CHRNB4</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>KCNH2</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>TRPA1</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>PRKCG</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>LCAT</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>LCT</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>BCHE</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>SLC1A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>CPT1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>CHKA</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>HDC</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>CYP11A1</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>SOD1</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>SLC6A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>GALM</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>FTH1</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>BHMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>TAAR1</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>HTR2C</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>CHRNA6</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>STAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>PAOX</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>HNMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>ADRA2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>GRIA4</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>HGD</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>AKR1B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>PPARG</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>HMGCR</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>CYP11B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>NAGS</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>ALB</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>NOS3</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>ALDH1A1</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>AQP7</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>CHRNA5</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>LALBA</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>CYP2A6</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>TK1</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>CYP7A1</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>PANK1</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>GUSB</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>UGT1A6</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>ACHE</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>UGT1A1</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>DRD5</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>GRM5</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>CHRM1</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>ADH1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>ADRA1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>GLUL</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>P2RY14</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>ACO1</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>LPL</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>B4GALT2</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
           <t>COQ2</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>CASP3</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>PLA2G1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>GBA1</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>ALDH5A1</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>CD209</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>CHRNA3</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>HTR1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>SHMT1</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>UGDH</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>CHDH</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>ME2</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>TRPM8</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>PGR</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>CYP11B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>MDH2</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>NOS2</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>UPP1</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>GAST</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>IDH2</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>ALAS2</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>SHMT2</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>NR1I2</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>CHAT</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>CYP3A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>HTR7</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>SNCA</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>UGP2</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>SRR</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>MAOA</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>GYG1</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>ACACB</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>HRH3</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>ESR2</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>ALDH3A2</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>WARS1</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>GAD1</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>TFRC</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>RRM2</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>CYP2D6</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>HTR4</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>SREBF2</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>COMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>PTGS1</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>DRD2</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>ABCG1</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>SUCNR1</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>FH</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>PTGS2</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>SOAT1</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>MAN1A1</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>CHRNB2</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>AMD1</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>PNLIP</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>CYP17A1</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>HTR1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>DPYD</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>CHRNA4</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>DHCR24</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>CPT2</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>GRIN1</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>GLO1</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>UPRT</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>UGT1A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>ALOX5</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>ABCA1</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>CDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>SRM</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>FXN</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>HRH2</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>MAOB</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>GALT</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>SAT1</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>XDH</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>B4GALT1</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>SHBG</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>TH</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>SOD3</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>FECH</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>CHRM5</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>DRD3</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>GARS1</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>DBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>FABP6</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>ADH6</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>APIP</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>HRH1</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>HAGH</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>GRIK1</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>CHKB</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>CHRNA2</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>SMS</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>TF</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>ADRA2C</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>GCG</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>SLC25A12</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>GRIK2</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>PRKCA</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>CHRM4</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>ADH7</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>CCS</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>LDHA</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>NR1H4</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>TRPV1</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>HSD17B1</t>
         </is>
       </c>
     </row>

--- a/TCM-VOTER/Protein_List.xlsx
+++ b/TCM-VOTER/Protein_List.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A41"/>
+  <dimension ref="A1:A1384"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,280 +443,9665 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RTN4R</t>
+          <t>FKBP4</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SIRT1</t>
+          <t>HEBP1</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GCK</t>
+          <t>SCTR</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ODC1</t>
+          <t>SLC7A9</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ALOX12</t>
+          <t>RTN4R</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PRKCG</t>
+          <t>PSMA4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LCT</t>
+          <t>INPP4A</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCHE</t>
+          <t>SLC2A3</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>GNA11</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CPT1A</t>
+          <t>PSMC4</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CHKA</t>
+          <t>PYGM</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GALM</t>
+          <t>P2RY10</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PAOX</t>
+          <t>ASNS</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PPARG</t>
+          <t>DRD4</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>PANK1</t>
+          <t>SCT</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>GUSB</t>
+          <t>PLOD1</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ACHE</t>
+          <t>OXCT1</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ACO1</t>
+          <t>CETP</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>PLA2G1B</t>
+          <t>SULT2B1</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>GBA1</t>
+          <t>DLD</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ALDH5A1</t>
+          <t>APOH</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CD209</t>
+          <t>ADH1A</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CHDH</t>
+          <t>AAAS</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>UPP1</t>
+          <t>PSMD5</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>IDH2</t>
+          <t>VCL</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CHAT</t>
+          <t>SIRT1</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ACACB</t>
+          <t>PSMD8</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>PTGS1</t>
+          <t>SERPIND1</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SUCNR1</t>
+          <t>MIF</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>PTGS2</t>
+          <t>SLC25A1</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MAN1A1</t>
+          <t>PLA2G3</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>AMD1</t>
+          <t>LGALS2</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CPT2</t>
+          <t>LGALS1</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ALOX5</t>
+          <t>RTCB</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CDA</t>
+          <t>MIOX</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SRM</t>
+          <t>ARSA</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SAT1</t>
+          <t>RBX1</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CHKB</t>
+          <t>ACO2</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SMS</t>
+          <t>GZMH</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PRKCA</t>
+          <t>GZMB</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>PYGL</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>GNPNAT1</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>PSMA3</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>GSTZ1</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>SPTLC2</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>ALKBH1</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>BDKRB1</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>PCK2</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>NFKBIA</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>PSME2</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>GSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>TRIB3</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>PROKR2</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>OXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>SLC32A1</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>AHCY</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>ACOT8</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>IDH3G</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>PSMD10</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>STS</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>TBL1X</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>GLRA2</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>GLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>MLNR</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>MMP2</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>DHODH</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>PSMD7</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>CDIPT</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>SLC6A2</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>DECR1</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>GML</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>PYCR3</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>DHDH</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>LHB</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>FCGRT</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>SLC17A7</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>SLC1A6</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>SULT2A1</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>RAB3A</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>PON1</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>NAMPT</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>PON2</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>OGDH</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>AIMP2</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>SERPINE1</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>PLOD3</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>GCK</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>SEC61B</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>C5</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>RLN1</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>C8G</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>CYP26A1</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>MPO</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>SLC25A11</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>RASD1</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>MED31</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>CCL2</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>NAGLU</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>COL1A1</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>RCVRN</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>CD38</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>LAP3</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>CXCL6</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>GNRHR</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>MANBA</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>APOC3</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>SLC15A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>DAO</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>MLEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>PARP11</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>ART4</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>NUP107</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>AICDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>GCLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>IYD</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>SLC6A7</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>HARS2</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>GRM6</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>IL12B</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>LNPEP</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>AGXT2</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>NUP155</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>RARS1</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>LTF</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>RBP2</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>RBP1</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>GNAT1</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>APOB</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>TTL</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>MOGS</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>ODC1</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>SLC1A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>PPP3R1</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>KISS1R</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>GRIN3B</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>SARS1</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>OPRD1</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>RGS2</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>NT5C1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>AKR7A2</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>SLC5A9</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>CTSD</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>APOA1</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>ATIC</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>TTR</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>ACOT2</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>SLC25A2</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>NFYB</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>RDH10</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>TAS2R8</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>PLBD1</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>TAS2R10</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>IAPP</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>TAS2R7</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>TAS2R9</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>KALRN</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>CAT</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>GHSR</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>LRP1</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>FAAH</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>SEC61A1</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>SLC36A1</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>PLA2G12A</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>MC3R</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>MOCS3</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>MCEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>LIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>AARS2</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>TREM1</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>GOT2</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>PTGER2</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>NUP85</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>NT5C</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>INSIG2</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>ALKBH7</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>GNRH2</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>S1PR4</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>UROD</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>FFAR1</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>CCR7</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>L3HYPDH</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>CANX</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>PHPT1</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>TAS2R3</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>TAS2R4</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>TAS2R5</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>PLA2G2C</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>F2RL3</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>HSPB1</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>GNGT1</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>MCHR1</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>GALR3</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>TAS2R16</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>OPN1SW</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>SIRT2</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>ALDH1A2</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>PARP2</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>EGLN3</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>ART1</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>RAF1</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>MED17</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>APOE</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>SLC27A1</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>COLGALT1</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>GDF15</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>SLC7A10</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>ACSS2</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>GFPT2</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>ACLY</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>AOC2</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>G6PC1</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>LGALS3</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>DNAJB1</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>NUP210</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>RRP8</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>SCLY</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>KDM6B</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>SNAP25</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>SSTR4</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>CRP</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>ACY3</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>ALDH3B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>DMGDH</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>BHMT2</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>NMUR2</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>CHRM3</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>MED10</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>NTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>PMP2</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>FABP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>MBD2</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>VHL</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>EDEM1</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>TSHB</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>SLC38A2</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>GRP</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>HRH4</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>FOLH1</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>MTNR1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>PHC2</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>SDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>NT5E</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>RDH5</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>NMBR</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>GNS</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>HTR2B</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>CYP27A1</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>ALDH1L2</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>MED4</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>NUP42</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>ACSBG1</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>BAAT</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>PSMB7</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>CCL21</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>CCL27</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>CLPS</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>GGH</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>TGS1</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>PLCB2</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>KYAT3</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>ADCY3</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>ABCG5</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>SLC3A1</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>CYP2C9</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>SLC16A7</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>SYT1</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>HAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>LYZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>PSMC1</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>GALC</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>MOCOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>GDE1</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>NUP133</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>LIAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>PSMA6</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>MAN2A1</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>RORA</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>SLC7A5</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>SCARB1</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>SLC6A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>PSMD11</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>BLMH</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>ALDH2</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>AARS1</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>ARG2</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>CYP46A1</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>PARP16</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>MARS1</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>ATP5F1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>SMAD2</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>DNAJB6</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>VIPR2</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>KCNH2</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>SMARCD3</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>PSMB1</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>TRPA1</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>ELOB</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>AXIN1</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>RPE65</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>SLC1A1</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>CREBBP</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>METTL2B</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>GLP2R</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>SLC27A6</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>SPTLC1</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>HPN</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>BPNT2</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>GRIK5</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>GNA15</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>PHYH</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>SCARF1</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>ASPA</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>PLD2</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>SLC27A5</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>SLC17A6</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>BBOX1</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>MED15</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>EP300</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>GRIN2D</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>TYR</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>MED26</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>PARP12</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>P4HA1</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>TAF1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>SPCS2</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>EPAS1</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>LRP2</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>ABCB11</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>STK17B</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>PIK3CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>LCAT</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>TREH</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>GPC1</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>SLC5A7</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>DARS1</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>LCT</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>AGPS</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>KYNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>CPOX</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>NMU</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>PPAT</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>BCHE</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>GUCY1B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>GLRB</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>GZMM</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>AGA</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>PSMD3</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>MTRR</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>GCKR</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>SLC2A9</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>PPARGC1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>NUP54</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>SCARB2</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>SDHA</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>BST1</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>KNG1</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>RASGRF2</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>SLC1A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>ENPEP</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>MED20</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>UGT2B10</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>ADH4</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>SCAP</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>OPRK1</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>CPT1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>GAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>CHKA</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>ABCB4</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>ACAT1</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>SLC5A1</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>ETNK1</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>RBP5</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>GLIPR1</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>SLC6A15</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>AMDHD1</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>SLC15A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>CDK2</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>NPFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>SSTR1</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>GPR65</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>ITPK1</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>SORD</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>SLC27A2</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>HDC</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>IGF1R</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>CYP11A1</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>RLBP1</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>MED9</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>NCOR1</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>G6PC3</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>IMPA2</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>NPC1</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>TP53</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>CBX8</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>CBX4</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>BCKDHA</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>SLC6A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>PSMB6</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>PTH2</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>SLC44A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>PSMA5</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>PROK1</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>RHOB</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>GALM</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>ABCG8</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>CALM1</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>RPS27A</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>PTH2R</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>ACKR3</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>CTDSP1</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>AMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>GLRA3</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>UGT3A1</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>BHMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>PLA2G7</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>MMUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>TAAR1</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>SLC2A12</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>GGCT</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>HTR2C</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>GNRH1</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>STAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>CRH</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>PLIN2</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>GLUD1</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>NPFFR1</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>SLC1A2</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>SLC43A1</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>FADS2</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>SLC13A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>ADRA2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>SLC7A11</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>LDHAL6A</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>SLC2A13</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>QDPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>MMAA</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>PARP8</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>MCHR2</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>MED13L</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>CYSLTR2</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>PTH</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>MARS2</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>GRIA4</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>MED21</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>PLOD2</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>SMARCA5</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>RANBP2</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>SERPINB3</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>HS3ST3A1</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>LY96</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>APP</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>CA2</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>MAN2B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>AKR1B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>NUP205</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>MED7</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>ADCY8</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>GNAQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>CXCL13</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>GLYATL2</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>SST</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>NMNAT2</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>PPARG</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>HTR5A</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>HMGCR</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>IPPK</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>HPD</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>ACSM3</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>NCF1</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>NPC1L1</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>HTR6</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>SLC5A11</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>CBR1</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>CBR3</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>PLA2G4D</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>PSMB4</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>HK2</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>MED8</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>PGLYRP3</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>PTGIR</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>TFF2</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>FTCD</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>FCN2</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>MED27</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>CXCR5</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>CCR2</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>CCR5</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>GPC2</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>HK3</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>PTGER1</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>ALKBH4</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>LTC4S</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>GRIN2C</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>HCRT</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>PSME3</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>NAGS</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>MED11</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>CXCL16</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>SSTR5</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>ADCY9</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>AZIN2</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>AGL</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>LHCGR</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>HAAO</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>NUP35</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>CCKAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>PROK2</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>CXCR1</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>RETSAT</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>FABP1</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>CDS1</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>ALB</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>CXCL3</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>CXCL5</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>PPBP</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>CCR1</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>RHO</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>MASP1</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>METAP1</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>ADH5</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>ETNPPL</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>GUCY1A1</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>F2RL2</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>F2RL1</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>ERAP1</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>TNFRSF21</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>CSF2</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>COL1A2</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>SLC35G3</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>RGS20</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>ADCY1</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>MED30</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>NOS3</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>SLC25A32</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>HSD3B7</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>ALDH1A1</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>RXFP2</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>SEC61A2</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>OXGR1</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>SLC18A2</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>LIPC</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>HIF1AN</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>AVPR1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>PCBD1</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>IDH3A</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>GALR1</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>MC4R</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>LDHD</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>PEX11A</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>ANPEP</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>GLYATL1</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>PDIA3</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>SLC27A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>MED1</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>LALBA</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>CYP2A6</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>TSR1</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>ACER1</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>ANGPTL4</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>SOAT2</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>CYP7A1</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>ABCA3</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>SDHAF2</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>PNOC</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>ACSM1</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>C3AR1</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>PRL</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>ALKBH3</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>RNASE3</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>LDHAL6B</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>HSPB2</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>AGXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>AXIN2</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>GUSB</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>MTNR1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>PTGER4</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>HDAC3</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>GOT1L1</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>MAT2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>UGT1A6</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>RGL1</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>PCSK9</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>ACHE</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>TACR3</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>PTGDR</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>TRH</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>TACR1</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>NUDT9</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>LRP8</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>NTSR2</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>PROKR1</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>INSR</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>CTLA4</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>STARD5</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>COL3A1</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>ADORA2B</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>FASN</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>UBB</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>P2RY1</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>CES3</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>UGT1A1</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>SLC6A19</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>ADRB2</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>S1PR1</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>CPLX1</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>CXCL10</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>GAA</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>TOMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>NMUR1</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>PRKCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>DRD5</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>GRM5</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>CHRM1</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>CXCL8</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>ADH1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>ADRA1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>RBKS</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>CXCL11</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>GLB1</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>SDC2</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>ASL</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>P2RY12</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>MGAT2</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>QARS1</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>SDR16C5</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>HTR1E</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>NPFFR2</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>GLUL</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>PCSK1</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>CYP2S1</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>PTDSS2</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>P2RY14</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>GLE1</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>CLOCK</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>CBX2</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>CCL19</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>SLC19A1</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>OLR1</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>PSMD1</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>ACO1</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>GPRC6A</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>PRKACA</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>LPL</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>PSMD2</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>HSPA6</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>P2RY2</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>XCR1</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>GLS2</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>PSMC5</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>NUP93</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>CCAR2</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>B4GALT2</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>CYP7B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>COQ2</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>CASP3</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>CYP4A11</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>PSMA8</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>ACOT1</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>ADCY6</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>GSTM1</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>TNKS</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>ADCY4</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>ADPGK</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>GRK2</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>PLA2G1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>TPMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>AOC3</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>PPARGC1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>LEP</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>HNF4A</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>GNAI2</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>GRHPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>PFAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>LGALS7</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>MBOAT4</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>VAMP2</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>MED29</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>GBA1</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>ALDH5A1</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>SLC28A2</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>EDNRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>GLTP</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>CD209</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>HTR1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>HSD11B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>P3H2</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>SLC17A8</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>ACSS1</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>PLD6</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>GLS</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>APOL1</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>PIPOX</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>CES2</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>MC5R</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>EDEM3</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>BCKDHB</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>HSPH1</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>TPO</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>CYP8B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>SHMT1</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>CAMK2G</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>GCSH</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>CXCR2</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>GPR4</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>PCK1</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>CHDH</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>LYPLA1</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>PKM</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>GHRHR</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>ARSJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>NPEPPS</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>PLAAT3</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>P2RY13</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>SLC7A8</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>YARS2</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>CALR</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>SLC2A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>ME2</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>TAC1</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>F2R</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>LPA</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>SLC16A8</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>PTH1R</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>FADS1</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>HMGCS1</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>HTR1F</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>BCAT2</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>ACOT4</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>UTS2R</t>
+        </is>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>SLC6A18</t>
+        </is>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>SLC2A2</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>MED14</t>
+        </is>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>HACL1</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>TRPM8</t>
+        </is>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>PENK</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>OXTR</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>GRHL1</t>
+        </is>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>METAP2</t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>MAT2B</t>
+        </is>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>KARS1</t>
+        </is>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>CNDP2</t>
+        </is>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>MED16</t>
+        </is>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>PARP10</t>
+        </is>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>CARM1</t>
+        </is>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>DHRS4</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>GANC</t>
+        </is>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>NADSYN1</t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>CCR8</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>MED25</t>
+        </is>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>MDH2</t>
+        </is>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>VIPR1</t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>NOS2</t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>ACSM2B</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>GLUD2</t>
+        </is>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>TAS2R60</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>P4HB</t>
+        </is>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>LPAR5</t>
+        </is>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>ACSM5</t>
+        </is>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>SLC5A2</t>
+        </is>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>FFAR3</t>
+        </is>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>S1PR5</t>
+        </is>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>RXFP3</t>
+        </is>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>GPR132</t>
+        </is>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>AFMID</t>
+        </is>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>SP1</t>
+        </is>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>SLC25A21</t>
+        </is>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>GALR2</t>
+        </is>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t>UPP1</t>
+        </is>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>NPW</t>
+        </is>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>CASP9</t>
+        </is>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="inlineStr">
+        <is>
+          <t>NPBWR1</t>
+        </is>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>PLB1</t>
+        </is>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>IP6K2</t>
+        </is>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>HGS</t>
+        </is>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>GAST</t>
+        </is>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>CALCA</t>
+        </is>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>TAS1R1</t>
+        </is>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>IDH2</t>
+        </is>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>PMCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>ALDH1A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>ALAS2</t>
+        </is>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>CCR10</t>
+        </is>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>NPY2R</t>
+        </is>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>CCR4</t>
+        </is>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>CYP2A13</t>
+        </is>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t>NPB</t>
+        </is>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t>IL6</t>
+        </is>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t>PTGDR2</t>
+        </is>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>SMAD3</t>
+        </is>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>BACE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>ADSS1</t>
+        </is>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>PLA2G6</t>
+        </is>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t>CYP2U1</t>
+        </is>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t>CYP2F1</t>
+        </is>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="inlineStr">
+        <is>
+          <t>ADI1</t>
+        </is>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t>SHMT2</t>
+        </is>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>BSG</t>
+        </is>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>MC2R</t>
+        </is>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>COQ6</t>
+        </is>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t>RPS19BP1</t>
+        </is>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>TAS2R42</t>
+        </is>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>SLC36A2</t>
+        </is>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>GNG2</t>
+        </is>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>DHRS4L2</t>
+        </is>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t>HSP90AA1</t>
+        </is>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
+          <t>TMLHE</t>
+        </is>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="inlineStr">
+        <is>
+          <t>DLST</t>
+        </is>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="inlineStr">
+        <is>
+          <t>CCKBR</t>
+        </is>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="inlineStr">
+        <is>
+          <t>ARHGEF25</t>
+        </is>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="inlineStr">
+        <is>
+          <t>NR1I2</t>
+        </is>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="inlineStr">
+        <is>
+          <t>ANG</t>
+        </is>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="inlineStr">
+        <is>
+          <t>OPRL1</t>
+        </is>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="inlineStr">
+        <is>
+          <t>FGG</t>
+        </is>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="inlineStr">
+        <is>
+          <t>SLC44A2</t>
+        </is>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="inlineStr">
+        <is>
+          <t>CHAT</t>
+        </is>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="inlineStr">
+        <is>
+          <t>EDN3</t>
+        </is>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="inlineStr">
+        <is>
+          <t>ENOX2</t>
+        </is>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="inlineStr">
+        <is>
+          <t>LRAT</t>
+        </is>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="inlineStr">
+        <is>
+          <t>SIRT6</t>
+        </is>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="inlineStr">
+        <is>
+          <t>MED19</t>
+        </is>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="inlineStr">
+        <is>
+          <t>LIPA</t>
+        </is>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="inlineStr">
+        <is>
+          <t>KLK5</t>
+        </is>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="inlineStr">
+        <is>
+          <t>ISYNA1</t>
+        </is>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="inlineStr">
+        <is>
+          <t>CYP3A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="inlineStr">
+        <is>
+          <t>HTR7</t>
+        </is>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="inlineStr">
+        <is>
+          <t>TARS3</t>
+        </is>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="inlineStr">
+        <is>
+          <t>PLCB1</t>
+        </is>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="inlineStr">
+        <is>
+          <t>NPAS2</t>
+        </is>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="inlineStr">
+        <is>
+          <t>SNCA</t>
+        </is>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="inlineStr">
+        <is>
+          <t>NUDT4B</t>
+        </is>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="inlineStr">
+        <is>
+          <t>GGT7</t>
+        </is>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="inlineStr">
+        <is>
+          <t>CAV1</t>
+        </is>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="inlineStr">
+        <is>
+          <t>DPP8</t>
+        </is>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="inlineStr">
+        <is>
+          <t>TRIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="inlineStr">
+        <is>
+          <t>SRR</t>
+        </is>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="inlineStr">
+        <is>
+          <t>NT5C2</t>
+        </is>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="inlineStr">
+        <is>
+          <t>CAMK2D</t>
+        </is>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="inlineStr">
+        <is>
+          <t>ACSL4</t>
+        </is>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="inlineStr">
+        <is>
+          <t>ACSM6</t>
+        </is>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="inlineStr">
+        <is>
+          <t>GANAB</t>
+        </is>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="inlineStr">
+        <is>
+          <t>NMNAT3</t>
+        </is>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="inlineStr">
+        <is>
+          <t>UTS2B</t>
+        </is>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="inlineStr">
+        <is>
+          <t>MAOA</t>
+        </is>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="inlineStr">
+        <is>
+          <t>GYG1</t>
+        </is>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="inlineStr">
+        <is>
+          <t>CRHR2</t>
+        </is>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="inlineStr">
+        <is>
+          <t>PTPN11</t>
+        </is>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="inlineStr">
+        <is>
+          <t>SIGLEC1</t>
+        </is>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="inlineStr">
+        <is>
+          <t>SMAD4</t>
+        </is>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="inlineStr">
+        <is>
+          <t>CYB5A</t>
+        </is>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="inlineStr">
+        <is>
+          <t>FPR3</t>
+        </is>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="inlineStr">
+        <is>
+          <t>CYP1A2</t>
+        </is>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="inlineStr">
+        <is>
+          <t>TRPV2</t>
+        </is>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="inlineStr">
+        <is>
+          <t>NUP43</t>
+        </is>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="inlineStr">
+        <is>
+          <t>SLC25A15</t>
+        </is>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="inlineStr">
+        <is>
+          <t>PYCR2</t>
+        </is>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="inlineStr">
+        <is>
+          <t>HRH3</t>
+        </is>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="inlineStr">
+        <is>
+          <t>ACER2</t>
+        </is>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="inlineStr">
+        <is>
+          <t>PLD1</t>
+        </is>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="inlineStr">
+        <is>
+          <t>ADCY2</t>
+        </is>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="inlineStr">
+        <is>
+          <t>GNAI1</t>
+        </is>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="inlineStr">
+        <is>
+          <t>GPR18</t>
+        </is>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="inlineStr">
+        <is>
+          <t>TPSAB1</t>
+        </is>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="inlineStr">
+        <is>
+          <t>ADRB3</t>
+        </is>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="inlineStr">
+        <is>
+          <t>GRM8</t>
+        </is>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="inlineStr">
+        <is>
+          <t>TAS1R3</t>
+        </is>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="inlineStr">
+        <is>
+          <t>CTNNB1</t>
+        </is>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="inlineStr">
+        <is>
+          <t>SDC3</t>
+        </is>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="inlineStr">
+        <is>
+          <t>INSIG1</t>
+        </is>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="inlineStr">
+        <is>
+          <t>GPT2</t>
+        </is>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="inlineStr">
+        <is>
+          <t>NFYA</t>
+        </is>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="inlineStr">
+        <is>
+          <t>TEAD3</t>
+        </is>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="inlineStr">
+        <is>
+          <t>ALDH3A2</t>
+        </is>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="inlineStr">
+        <is>
+          <t>NUP50</t>
+        </is>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="inlineStr">
+        <is>
+          <t>UCKL1</t>
+        </is>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="inlineStr">
+        <is>
+          <t>FBXO2</t>
+        </is>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="inlineStr">
+        <is>
+          <t>SLC6A20</t>
+        </is>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="inlineStr">
+        <is>
+          <t>HKDC1</t>
+        </is>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="inlineStr">
+        <is>
+          <t>OCA2</t>
+        </is>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="inlineStr">
+        <is>
+          <t>UGT1A9</t>
+        </is>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="inlineStr">
+        <is>
+          <t>CRYBA4</t>
+        </is>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="inlineStr">
+        <is>
+          <t>ALDH9A1</t>
+        </is>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="inlineStr">
+        <is>
+          <t>FN1</t>
+        </is>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="inlineStr">
+        <is>
+          <t>FAR1</t>
+        </is>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="inlineStr">
+        <is>
+          <t>PDE5A</t>
+        </is>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="inlineStr">
+        <is>
+          <t>C5AR1</t>
+        </is>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="inlineStr">
+        <is>
+          <t>DHCR7</t>
+        </is>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="inlineStr">
+        <is>
+          <t>ART3</t>
+        </is>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="inlineStr">
+        <is>
+          <t>SREBF1</t>
+        </is>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="inlineStr">
+        <is>
+          <t>TAT</t>
+        </is>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="inlineStr">
+        <is>
+          <t>ACSL5</t>
+        </is>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="inlineStr">
+        <is>
+          <t>PSMD12</t>
+        </is>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="inlineStr">
+        <is>
+          <t>ACMSD</t>
+        </is>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="inlineStr">
+        <is>
+          <t>AKAP9</t>
+        </is>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="inlineStr">
+        <is>
+          <t>ADAM33</t>
+        </is>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="inlineStr">
+        <is>
+          <t>RSPO1</t>
+        </is>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="inlineStr">
+        <is>
+          <t>MAN1A2</t>
+        </is>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="inlineStr">
+        <is>
+          <t>PTGER3</t>
+        </is>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="inlineStr">
+        <is>
+          <t>ATP5F1C</t>
+        </is>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="inlineStr">
+        <is>
+          <t>ITGAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="inlineStr">
+        <is>
+          <t>PRODH</t>
+        </is>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="inlineStr">
+        <is>
+          <t>GM2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="inlineStr">
+        <is>
+          <t>GIP</t>
+        </is>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="inlineStr">
+        <is>
+          <t>ACSL3</t>
+        </is>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="inlineStr">
+        <is>
+          <t>SLC29A2</t>
+        </is>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="inlineStr">
+        <is>
+          <t>RIMKLB</t>
+        </is>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="inlineStr">
+        <is>
+          <t>SSTR2</t>
+        </is>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="inlineStr">
+        <is>
+          <t>CCR9</t>
+        </is>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="inlineStr">
+        <is>
+          <t>GRM7</t>
+        </is>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="inlineStr">
+        <is>
+          <t>APOA4</t>
+        </is>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="inlineStr">
+        <is>
+          <t>GAD1</t>
+        </is>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="inlineStr">
+        <is>
+          <t>PSMB10</t>
+        </is>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="inlineStr">
+        <is>
+          <t>MANEA</t>
+        </is>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="inlineStr">
+        <is>
+          <t>CCL20</t>
+        </is>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="inlineStr">
+        <is>
+          <t>CNDP1</t>
+        </is>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="inlineStr">
+        <is>
+          <t>PIK3CG</t>
+        </is>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="inlineStr">
+        <is>
+          <t>SLC2A10</t>
+        </is>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="inlineStr">
+        <is>
+          <t>NUP214</t>
+        </is>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="inlineStr">
+        <is>
+          <t>CALCR</t>
+        </is>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="inlineStr">
+        <is>
+          <t>AKR1B10</t>
+        </is>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="inlineStr">
+        <is>
+          <t>PGLYRP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="inlineStr">
+        <is>
+          <t>HIBCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="inlineStr">
+        <is>
+          <t>TEAD4</t>
+        </is>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="inlineStr">
+        <is>
+          <t>PYY</t>
+        </is>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="inlineStr">
+        <is>
+          <t>PARP9</t>
+        </is>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="inlineStr">
+        <is>
+          <t>CES1</t>
+        </is>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="inlineStr">
+        <is>
+          <t>DPP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="inlineStr">
+        <is>
+          <t>SLC6A9</t>
+        </is>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="inlineStr">
+        <is>
+          <t>CYP2D6</t>
+        </is>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="inlineStr">
+        <is>
+          <t>HTR4</t>
+        </is>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="inlineStr">
+        <is>
+          <t>MPC1</t>
+        </is>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="inlineStr">
+        <is>
+          <t>CCL28</t>
+        </is>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="inlineStr">
+        <is>
+          <t>SREBF2</t>
+        </is>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="inlineStr">
+        <is>
+          <t>COMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="inlineStr">
+        <is>
+          <t>PNP</t>
+        </is>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="inlineStr">
+        <is>
+          <t>MT-CYB</t>
+        </is>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="inlineStr">
+        <is>
+          <t>PPT2</t>
+        </is>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="inlineStr">
+        <is>
+          <t>AMY2B</t>
+        </is>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="inlineStr">
+        <is>
+          <t>PTGS1</t>
+        </is>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="inlineStr">
+        <is>
+          <t>NPY1R</t>
+        </is>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="inlineStr">
+        <is>
+          <t>DRD2</t>
+        </is>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="inlineStr">
+        <is>
+          <t>CXCL9</t>
+        </is>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="inlineStr">
+        <is>
+          <t>COLGALT2</t>
+        </is>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="inlineStr">
+        <is>
+          <t>ABCG1</t>
+        </is>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="inlineStr">
+        <is>
+          <t>DARS2</t>
+        </is>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="inlineStr">
+        <is>
+          <t>GRIN3A</t>
+        </is>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="inlineStr">
+        <is>
+          <t>SUCNR1</t>
+        </is>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="inlineStr">
+        <is>
+          <t>GRM3</t>
+        </is>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="inlineStr">
+        <is>
+          <t>PSMB5</t>
+        </is>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="inlineStr">
+        <is>
+          <t>SCCPDH</t>
+        </is>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="inlineStr">
+        <is>
+          <t>ADSS2</t>
+        </is>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="inlineStr">
+        <is>
+          <t>KMO</t>
+        </is>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="inlineStr">
+        <is>
+          <t>FH</t>
+        </is>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="inlineStr">
+        <is>
+          <t>RGS7</t>
+        </is>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="inlineStr">
+        <is>
+          <t>MTR</t>
+        </is>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="inlineStr">
+        <is>
+          <t>EGLN1</t>
+        </is>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="inlineStr">
+        <is>
+          <t>GNPAT</t>
+        </is>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="inlineStr">
+        <is>
+          <t>AGT</t>
+        </is>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="inlineStr">
+        <is>
+          <t>ACTA1</t>
+        </is>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="inlineStr">
+        <is>
+          <t>PARP1</t>
+        </is>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="inlineStr">
+        <is>
+          <t>EPRS1</t>
+        </is>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="inlineStr">
+        <is>
+          <t>SLC22A2</t>
+        </is>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="inlineStr">
+        <is>
+          <t>SLC22A1</t>
+        </is>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="inlineStr">
+        <is>
+          <t>G0S2</t>
+        </is>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="inlineStr">
+        <is>
+          <t>MRPL18</t>
+        </is>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="inlineStr">
+        <is>
+          <t>MDM4</t>
+        </is>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="inlineStr">
+        <is>
+          <t>KISS1</t>
+        </is>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="inlineStr">
+        <is>
+          <t>VIP</t>
+        </is>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="inlineStr">
+        <is>
+          <t>RGS1</t>
+        </is>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="inlineStr">
+        <is>
+          <t>RGS18</t>
+        </is>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="inlineStr">
+        <is>
+          <t>PLA2G4A</t>
+        </is>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="inlineStr">
+        <is>
+          <t>PTGS2</t>
+        </is>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="inlineStr">
+        <is>
+          <t>TPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="inlineStr">
+        <is>
+          <t>RNF2</t>
+        </is>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="inlineStr">
+        <is>
+          <t>SOAT1</t>
+        </is>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="inlineStr">
+        <is>
+          <t>SERPINC1</t>
+        </is>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="inlineStr">
+        <is>
+          <t>XCL1</t>
+        </is>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="inlineStr">
+        <is>
+          <t>XCL2</t>
+        </is>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="inlineStr">
+        <is>
+          <t>UCK2</t>
+        </is>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="inlineStr">
+        <is>
+          <t>SDHC</t>
+        </is>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="inlineStr">
+        <is>
+          <t>CCN2</t>
+        </is>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="inlineStr">
+        <is>
+          <t>APOA2</t>
+        </is>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="inlineStr">
+        <is>
+          <t>MED23</t>
+        </is>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="inlineStr">
+        <is>
+          <t>FCER1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="inlineStr">
+        <is>
+          <t>LMNA</t>
+        </is>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="inlineStr">
+        <is>
+          <t>RNF146</t>
+        </is>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="inlineStr">
+        <is>
+          <t>RXFP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="inlineStr">
+        <is>
+          <t>EFNA1</t>
+        </is>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="inlineStr">
+        <is>
+          <t>MAN1A1</t>
+        </is>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="inlineStr">
+        <is>
+          <t>OAT</t>
+        </is>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="inlineStr">
+        <is>
+          <t>SLC16A10</t>
+        </is>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="inlineStr">
+        <is>
+          <t>PSMD4</t>
+        </is>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="inlineStr">
+        <is>
+          <t>CDK19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="inlineStr">
+        <is>
+          <t>CTSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="inlineStr">
+        <is>
+          <t>PLEKHA1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="inlineStr">
+        <is>
+          <t>MCL1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="inlineStr">
+        <is>
+          <t>PDSS2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="inlineStr">
+        <is>
+          <t>TARS2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="inlineStr">
+        <is>
+          <t>RGS10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="inlineStr">
+        <is>
+          <t>CA14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="inlineStr">
+        <is>
+          <t>PNLIP</t>
+        </is>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="inlineStr">
+        <is>
+          <t>ADRB1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="inlineStr">
+        <is>
+          <t>HMGCS2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="inlineStr">
+        <is>
+          <t>PHGDH</t>
+        </is>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="inlineStr">
+        <is>
+          <t>CD2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="inlineStr">
+        <is>
+          <t>RARS2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="inlineStr">
+        <is>
+          <t>ME1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="inlineStr">
+        <is>
+          <t>TMIGD3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="inlineStr">
+        <is>
+          <t>NPBWR2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="inlineStr">
+        <is>
+          <t>GNAI3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="inlineStr">
+        <is>
+          <t>CYP17A1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="inlineStr">
+        <is>
+          <t>OPN1MW2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="inlineStr">
+        <is>
+          <t>HTR1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="inlineStr">
+        <is>
+          <t>OPN1LW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="inlineStr">
+        <is>
+          <t>DBT</t>
+        </is>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="inlineStr">
+        <is>
+          <t>ABCA4</t>
+        </is>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="inlineStr">
+        <is>
+          <t>GCLM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="inlineStr">
+        <is>
+          <t>SCD</t>
+        </is>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="inlineStr">
+        <is>
+          <t>NTSR1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="inlineStr">
+        <is>
+          <t>GOT1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="inlineStr">
+        <is>
+          <t>LGSN</t>
+        </is>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="inlineStr">
+        <is>
+          <t>PTGFR</t>
+        </is>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="inlineStr">
+        <is>
+          <t>GPC4</t>
+        </is>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="inlineStr">
+        <is>
+          <t>SLC44A5</t>
+        </is>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="inlineStr">
+        <is>
+          <t>PSMA7</t>
+        </is>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="inlineStr">
+        <is>
+          <t>CTH</t>
+        </is>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="inlineStr">
+        <is>
+          <t>GNAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="inlineStr">
+        <is>
+          <t>CYP2J2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="inlineStr">
+        <is>
+          <t>JUN</t>
+        </is>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="inlineStr">
+        <is>
+          <t>ALDH18A1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="inlineStr">
+        <is>
+          <t>DHCR24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="inlineStr">
+        <is>
+          <t>CYP2C8</t>
+        </is>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="inlineStr">
+        <is>
+          <t>PARS2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="inlineStr">
+        <is>
+          <t>CYP2C19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="inlineStr">
+        <is>
+          <t>FFAR4</t>
+        </is>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="inlineStr">
+        <is>
+          <t>CPT2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="inlineStr">
+        <is>
+          <t>GRIN1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="inlineStr">
+        <is>
+          <t>MAN1B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="inlineStr">
+        <is>
+          <t>PTPN1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="inlineStr">
+        <is>
+          <t>TNKS2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="inlineStr">
+        <is>
+          <t>ANKRD1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="inlineStr">
+        <is>
+          <t>GLT6D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="inlineStr">
+        <is>
+          <t>CH25H</t>
+        </is>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="inlineStr">
+        <is>
+          <t>SARDH</t>
+        </is>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="inlineStr">
+        <is>
+          <t>CYP4A22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="inlineStr">
+        <is>
+          <t>SLC2A6</t>
+        </is>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="inlineStr">
+        <is>
+          <t>CYP4X1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="inlineStr">
+        <is>
+          <t>AGTR2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="inlineStr">
+        <is>
+          <t>MINPP1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="inlineStr">
+        <is>
+          <t>NCOA3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="inlineStr">
+        <is>
+          <t>OPN4</t>
+        </is>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="inlineStr">
+        <is>
+          <t>SFTPD</t>
+        </is>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="inlineStr">
+        <is>
+          <t>MMP9</t>
+        </is>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="inlineStr">
+        <is>
+          <t>ABL1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="inlineStr">
+        <is>
+          <t>NCS1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="inlineStr">
+        <is>
+          <t>NUP188</t>
+        </is>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="inlineStr">
+        <is>
+          <t>EDN2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="inlineStr">
+        <is>
+          <t>SDC4</t>
+        </is>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="inlineStr">
+        <is>
+          <t>GNMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="inlineStr">
+        <is>
+          <t>OXCT2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="inlineStr">
+        <is>
+          <t>PLA2G12B</t>
+        </is>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="inlineStr">
+        <is>
+          <t>GRIK3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="inlineStr">
+        <is>
+          <t>SLC29A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="inlineStr">
+        <is>
+          <t>PSMB2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="inlineStr">
+        <is>
+          <t>FPGS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="inlineStr">
+        <is>
+          <t>GLP1R</t>
+        </is>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="inlineStr">
+        <is>
+          <t>TACR2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="inlineStr">
+        <is>
+          <t>SLC2A8</t>
+        </is>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="inlineStr">
+        <is>
+          <t>UGT1A7</t>
+        </is>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="inlineStr">
+        <is>
+          <t>YARS1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="inlineStr">
+        <is>
+          <t>PIM1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="inlineStr">
+        <is>
+          <t>CXCR3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="inlineStr">
+        <is>
+          <t>MED18</t>
+        </is>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="inlineStr">
+        <is>
+          <t>IPMK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="inlineStr">
+        <is>
+          <t>TLR4</t>
+        </is>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="inlineStr">
+        <is>
+          <t>MED12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="inlineStr">
+        <is>
+          <t>NFS1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="inlineStr">
+        <is>
+          <t>SLC18A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="inlineStr">
+        <is>
+          <t>NPY4R2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="inlineStr">
+        <is>
+          <t>MAN1C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="inlineStr">
+        <is>
+          <t>LDLRAP1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="inlineStr">
+        <is>
+          <t>ALOX5</t>
+        </is>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="inlineStr">
+        <is>
+          <t>CNR2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="inlineStr">
+        <is>
+          <t>EDEM2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="inlineStr">
+        <is>
+          <t>P2RY4</t>
+        </is>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="inlineStr">
+        <is>
+          <t>HSPG2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="inlineStr">
+        <is>
+          <t>AOX1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="inlineStr">
+        <is>
+          <t>SLC44A1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="inlineStr">
+        <is>
+          <t>ABCA1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="inlineStr">
+        <is>
+          <t>FAAH2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="inlineStr">
+        <is>
+          <t>CDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="inlineStr">
+        <is>
+          <t>PLA2G2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="inlineStr">
+        <is>
+          <t>PLA2G2D</t>
+        </is>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="inlineStr">
+        <is>
+          <t>PLA2G5</t>
+        </is>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="inlineStr">
+        <is>
+          <t>PLA2G2E</t>
+        </is>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="inlineStr">
+        <is>
+          <t>HSD17B3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="inlineStr">
+        <is>
+          <t>G6PC2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="inlineStr">
+        <is>
+          <t>TAS1R2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="inlineStr">
+        <is>
+          <t>SDHB</t>
+        </is>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="inlineStr">
+        <is>
+          <t>SDHD</t>
+        </is>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="inlineStr">
+        <is>
+          <t>IARS1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="inlineStr">
+        <is>
+          <t>HSPA1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="inlineStr">
+        <is>
+          <t>VARS1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="inlineStr">
+        <is>
+          <t>TNFSF13B</t>
+        </is>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="inlineStr">
+        <is>
+          <t>NUDT11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="inlineStr">
+        <is>
+          <t>TPP2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="inlineStr">
+        <is>
+          <t>PDSS1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="inlineStr">
+        <is>
+          <t>HLA-C</t>
+        </is>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" t="inlineStr">
+        <is>
+          <t>SLC28A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" t="inlineStr">
+        <is>
+          <t>PSAT1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" t="inlineStr">
+        <is>
+          <t>GNA14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" t="inlineStr">
+        <is>
+          <t>BMI1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" t="inlineStr">
+        <is>
+          <t>NMS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" t="inlineStr">
+        <is>
+          <t>GPC6</t>
+        </is>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" t="inlineStr">
+        <is>
+          <t>GPC5</t>
+        </is>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="inlineStr">
+        <is>
+          <t>KDM2B</t>
+        </is>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" t="inlineStr">
+        <is>
+          <t>NMNAT1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" t="inlineStr">
+        <is>
+          <t>EDNRB</t>
+        </is>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" t="inlineStr">
+        <is>
+          <t>FXN</t>
+        </is>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" t="inlineStr">
+        <is>
+          <t>HRH2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" t="inlineStr">
+        <is>
+          <t>SLC2A5</t>
+        </is>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" t="inlineStr">
+        <is>
+          <t>SLC22A12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" t="inlineStr">
+        <is>
+          <t>HIF3A</t>
+        </is>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="inlineStr">
+        <is>
+          <t>ALDH1B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="inlineStr">
+        <is>
+          <t>ACOT7</t>
+        </is>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" t="inlineStr">
+        <is>
+          <t>SLC3A2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" t="inlineStr">
+        <is>
+          <t>MAOB</t>
+        </is>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" t="inlineStr">
+        <is>
+          <t>GBA2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" t="inlineStr">
+        <is>
+          <t>APRT</t>
+        </is>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" t="inlineStr">
+        <is>
+          <t>NUP160</t>
+        </is>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" t="inlineStr">
+        <is>
+          <t>UNC13B</t>
+        </is>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" t="inlineStr">
+        <is>
+          <t>SUCLA2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" t="inlineStr">
+        <is>
+          <t>OXER1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" t="inlineStr">
+        <is>
+          <t>HAO1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" t="inlineStr">
+        <is>
+          <t>GPCPD1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" t="inlineStr">
+        <is>
+          <t>AGRN</t>
+        </is>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="inlineStr">
+        <is>
+          <t>EDN1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="inlineStr">
+        <is>
+          <t>XDH</t>
+        </is>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" t="inlineStr">
+        <is>
+          <t>ADRA1D</t>
+        </is>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" t="inlineStr">
+        <is>
+          <t>ASPH</t>
+        </is>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="inlineStr">
+        <is>
+          <t>EEF1E1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" t="inlineStr">
+        <is>
+          <t>CYP1A1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" t="inlineStr">
+        <is>
+          <t>B4GALT1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" t="inlineStr">
+        <is>
+          <t>ARSK</t>
+        </is>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" t="inlineStr">
+        <is>
+          <t>ITPA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155" t="inlineStr">
+        <is>
+          <t>ECI2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" t="inlineStr">
+        <is>
+          <t>ALOX15B</t>
+        </is>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" t="inlineStr">
+        <is>
+          <t>IFNB1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" t="inlineStr">
+        <is>
+          <t>GRPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" t="inlineStr">
+        <is>
+          <t>AVP</t>
+        </is>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" t="inlineStr">
+        <is>
+          <t>AKR1C3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" t="inlineStr">
+        <is>
+          <t>ADRA1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" t="inlineStr">
+        <is>
+          <t>SLC7A1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="inlineStr">
+        <is>
+          <t>IDH3B</t>
+        </is>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="inlineStr">
+        <is>
+          <t>PNPLA4</t>
+        </is>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="inlineStr">
+        <is>
+          <t>SLC5A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" t="inlineStr">
+        <is>
+          <t>ARSD</t>
+        </is>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" t="inlineStr">
+        <is>
+          <t>GYG2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" t="inlineStr">
+        <is>
+          <t>TH</t>
+        </is>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" t="inlineStr">
+        <is>
+          <t>GLDC</t>
+        </is>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" t="inlineStr">
+        <is>
+          <t>RDH11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171" t="inlineStr">
+        <is>
+          <t>CDK8</t>
+        </is>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" t="inlineStr">
+        <is>
+          <t>GCAT</t>
+        </is>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" t="inlineStr">
+        <is>
+          <t>ASAH1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" t="inlineStr">
+        <is>
+          <t>PARP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" t="inlineStr">
+        <is>
+          <t>JMJD7</t>
+        </is>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176" t="inlineStr">
+        <is>
+          <t>TAS2R1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" t="inlineStr">
+        <is>
+          <t>FAHD1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" t="inlineStr">
+        <is>
+          <t>PSME1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" t="inlineStr">
+        <is>
+          <t>FECH</t>
+        </is>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180" t="inlineStr">
+        <is>
+          <t>SLC7A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="1181">
+      <c r="A1181" t="inlineStr">
+        <is>
+          <t>CHRM5</t>
+        </is>
+      </c>
+    </row>
+    <row r="1182">
+      <c r="A1182" t="inlineStr">
+        <is>
+          <t>UROC1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183" t="inlineStr">
+        <is>
+          <t>DRD3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" t="inlineStr">
+        <is>
+          <t>TYRP1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" t="inlineStr">
+        <is>
+          <t>NT5M</t>
+        </is>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" t="inlineStr">
+        <is>
+          <t>ASPDH</t>
+        </is>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" t="inlineStr">
+        <is>
+          <t>GARS1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1188">
+      <c r="A1188" t="inlineStr">
+        <is>
+          <t>HAGHL</t>
+        </is>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189" t="inlineStr">
+        <is>
+          <t>HCAR2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190" t="inlineStr">
+        <is>
+          <t>CCL25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" t="inlineStr">
+        <is>
+          <t>TAS2R19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" t="inlineStr">
+        <is>
+          <t>TAS2R31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" t="inlineStr">
+        <is>
+          <t>TAS2R13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" t="inlineStr">
+        <is>
+          <t>PLD4</t>
+        </is>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" t="inlineStr">
+        <is>
+          <t>GRK5</t>
+        </is>
+      </c>
+    </row>
+    <row r="1196">
+      <c r="A1196" t="inlineStr">
+        <is>
+          <t>TDG</t>
+        </is>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" t="inlineStr">
+        <is>
+          <t>DBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" t="inlineStr">
+        <is>
+          <t>AASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" t="inlineStr">
+        <is>
+          <t>SUCLG1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" t="inlineStr">
+        <is>
+          <t>MED24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" t="inlineStr">
+        <is>
+          <t>GPC3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" t="inlineStr">
+        <is>
+          <t>QRFPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" t="inlineStr">
+        <is>
+          <t>LARS1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" t="inlineStr">
+        <is>
+          <t>NMB</t>
+        </is>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" t="inlineStr">
+        <is>
+          <t>CCL8</t>
+        </is>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" t="inlineStr">
+        <is>
+          <t>AIMP1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" t="inlineStr">
+        <is>
+          <t>PPP3CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" t="inlineStr">
+        <is>
+          <t>ADH6</t>
+        </is>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" t="inlineStr">
+        <is>
+          <t>PSAP</t>
+        </is>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" t="inlineStr">
+        <is>
+          <t>GPT</t>
+        </is>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" t="inlineStr">
+        <is>
+          <t>GRM2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" t="inlineStr">
+        <is>
+          <t>CDK1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" t="inlineStr">
+        <is>
+          <t>LGALS9</t>
+        </is>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" t="inlineStr">
+        <is>
+          <t>CAMK2B</t>
+        </is>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" t="inlineStr">
+        <is>
+          <t>CXCL1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" t="inlineStr">
+        <is>
+          <t>CXCL12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" t="inlineStr">
+        <is>
+          <t>ATP6V1C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" t="inlineStr">
+        <is>
+          <t>HNF4G</t>
+        </is>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" t="inlineStr">
+        <is>
+          <t>GATM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" t="inlineStr">
+        <is>
+          <t>MOCS2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" t="inlineStr">
+        <is>
+          <t>HRH1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" t="inlineStr">
+        <is>
+          <t>HAGH</t>
+        </is>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" t="inlineStr">
+        <is>
+          <t>MED13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" t="inlineStr">
+        <is>
+          <t>NPS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="inlineStr">
+        <is>
+          <t>RDH16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" t="inlineStr">
+        <is>
+          <t>APOF</t>
+        </is>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="inlineStr">
+        <is>
+          <t>PLPP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="inlineStr">
+        <is>
+          <t>CRHR1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="inlineStr">
+        <is>
+          <t>GNAT3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="inlineStr">
+        <is>
+          <t>GGT5</t>
+        </is>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="inlineStr">
+        <is>
+          <t>CAMK2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="inlineStr">
+        <is>
+          <t>GSTP1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="inlineStr">
+        <is>
+          <t>UBE2D2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" t="inlineStr">
+        <is>
+          <t>PARP3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" t="inlineStr">
+        <is>
+          <t>SPTLC3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" t="inlineStr">
+        <is>
+          <t>ALKBH5</t>
+        </is>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="inlineStr">
+        <is>
+          <t>ABCC1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="inlineStr">
+        <is>
+          <t>ACSM4</t>
+        </is>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="inlineStr">
+        <is>
+          <t>PLA2G4E</t>
+        </is>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240" t="inlineStr">
+        <is>
+          <t>PAICS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241" t="inlineStr">
+        <is>
+          <t>GRIK1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242" t="inlineStr">
+        <is>
+          <t>COLEC12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1243">
+      <c r="A1243" t="inlineStr">
+        <is>
+          <t>GCGR</t>
+        </is>
+      </c>
+    </row>
+    <row r="1244">
+      <c r="A1244" t="inlineStr">
+        <is>
+          <t>SLC2A7</t>
+        </is>
+      </c>
+    </row>
+    <row r="1245">
+      <c r="A1245" t="inlineStr">
+        <is>
+          <t>MMACHC</t>
+        </is>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="A1246" t="inlineStr">
+        <is>
+          <t>NCOR2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247" t="inlineStr">
+        <is>
+          <t>PSME4</t>
+        </is>
+      </c>
+    </row>
+    <row r="1248">
+      <c r="A1248" t="inlineStr">
+        <is>
+          <t>CHKB</t>
+        </is>
+      </c>
+    </row>
+    <row r="1249">
+      <c r="A1249" t="inlineStr">
+        <is>
+          <t>CBX6</t>
+        </is>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250" t="inlineStr">
+        <is>
+          <t>FSHR</t>
+        </is>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251" t="inlineStr">
+        <is>
+          <t>SAR1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" t="inlineStr">
+        <is>
+          <t>TF</t>
+        </is>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253" t="inlineStr">
+        <is>
+          <t>ADRA2C</t>
+        </is>
+      </c>
+    </row>
+    <row r="1254">
+      <c r="A1254" t="inlineStr">
+        <is>
+          <t>TAS2R41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1255">
+      <c r="A1255" t="inlineStr">
+        <is>
+          <t>TAS2R40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1256">
+      <c r="A1256" t="inlineStr">
+        <is>
+          <t>PSMB11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1257">
+      <c r="A1257" t="inlineStr">
+        <is>
+          <t>RGS14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1258">
+      <c r="A1258" t="inlineStr">
+        <is>
+          <t>ALAD</t>
+        </is>
+      </c>
+    </row>
+    <row r="1259">
+      <c r="A1259" t="inlineStr">
+        <is>
+          <t>MYO7A</t>
+        </is>
+      </c>
+    </row>
+    <row r="1260">
+      <c r="A1260" t="inlineStr">
+        <is>
+          <t>PSMD14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1261">
+      <c r="A1261" t="inlineStr">
+        <is>
+          <t>CXCR4</t>
+        </is>
+      </c>
+    </row>
+    <row r="1262">
+      <c r="A1262" t="inlineStr">
+        <is>
+          <t>ALDH7A1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1263">
+      <c r="A1263" t="inlineStr">
+        <is>
+          <t>GCG</t>
+        </is>
+      </c>
+    </row>
+    <row r="1264">
+      <c r="A1264" t="inlineStr">
+        <is>
+          <t>UGT2B11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265" t="inlineStr">
+        <is>
+          <t>UBA52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266" t="inlineStr">
+        <is>
+          <t>SLC25A12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267" t="inlineStr">
+        <is>
+          <t>MLN</t>
+        </is>
+      </c>
+    </row>
+    <row r="1268">
+      <c r="A1268" t="inlineStr">
+        <is>
+          <t>CARNS1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" t="inlineStr">
+        <is>
+          <t>NT5C3B</t>
+        </is>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270" t="inlineStr">
+        <is>
+          <t>PTPN6</t>
+        </is>
+      </c>
+    </row>
+    <row r="1271">
+      <c r="A1271" t="inlineStr">
+        <is>
+          <t>SLC13A2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1272">
+      <c r="A1272" t="inlineStr">
+        <is>
+          <t>TBXA2R</t>
+        </is>
+      </c>
+    </row>
+    <row r="1273">
+      <c r="A1273" t="inlineStr">
+        <is>
+          <t>PLA2G10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274" t="inlineStr">
+        <is>
+          <t>JMJD6</t>
+        </is>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" t="inlineStr">
+        <is>
+          <t>OPRM1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" t="inlineStr">
+        <is>
+          <t>PPT1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" t="inlineStr">
+        <is>
+          <t>MAN2B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" t="inlineStr">
+        <is>
+          <t>PLA2G4B</t>
+        </is>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" t="inlineStr">
+        <is>
+          <t>DHFR</t>
+        </is>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280" t="inlineStr"/>
+    </row>
+    <row r="1281">
+      <c r="A1281" t="inlineStr">
+        <is>
+          <t>GLB1L3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" t="inlineStr">
+        <is>
+          <t>NFYC</t>
+        </is>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283" t="inlineStr">
+        <is>
+          <t>PSMD13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" t="inlineStr">
+        <is>
+          <t>GRIK2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285" t="inlineStr">
+        <is>
+          <t>RGS4</t>
+        </is>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286" t="inlineStr">
+        <is>
+          <t>TNF</t>
+        </is>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287" t="inlineStr">
+        <is>
+          <t>HLA-B</t>
+        </is>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" t="inlineStr">
+        <is>
+          <t>NCOA2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" t="inlineStr">
+        <is>
+          <t>SLC25A13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" t="inlineStr">
+        <is>
+          <t>RHOA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" t="inlineStr">
+        <is>
+          <t>ERAP2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292" t="inlineStr">
+        <is>
+          <t>BUD23</t>
+        </is>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293" t="inlineStr">
+        <is>
+          <t>NAPRT</t>
+        </is>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" t="inlineStr">
+        <is>
+          <t>PSMC6</t>
+        </is>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" t="inlineStr">
+        <is>
+          <t>PVR</t>
+        </is>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" t="inlineStr">
+        <is>
+          <t>CPS1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297" t="inlineStr">
+        <is>
+          <t>GAMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298" t="inlineStr">
+        <is>
+          <t>TAS2R39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1299">
+      <c r="A1299" t="inlineStr">
+        <is>
+          <t>GPI</t>
+        </is>
+      </c>
+    </row>
+    <row r="1300">
+      <c r="A1300" t="inlineStr">
+        <is>
+          <t>TBL1XR1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1301">
+      <c r="A1301" t="inlineStr">
+        <is>
+          <t>RASGRF1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1302">
+      <c r="A1302" t="inlineStr">
+        <is>
+          <t>SLC13A5</t>
+        </is>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303" t="inlineStr">
+        <is>
+          <t>PHOSPHO1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1304">
+      <c r="A1304" t="inlineStr">
+        <is>
+          <t>ARSG</t>
+        </is>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305" t="inlineStr">
+        <is>
+          <t>IMPA1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="A1306" t="inlineStr">
+        <is>
+          <t>CHRM4</t>
+        </is>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" t="inlineStr">
+        <is>
+          <t>GLRA1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308" t="inlineStr">
+        <is>
+          <t>NAT8L</t>
+        </is>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" t="inlineStr"/>
+    </row>
+    <row r="1310">
+      <c r="A1310" t="inlineStr">
+        <is>
+          <t>BDNF</t>
+        </is>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" t="inlineStr">
+        <is>
+          <t>RIMKLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" t="inlineStr">
+        <is>
+          <t>PSMA1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313" t="inlineStr">
+        <is>
+          <t>SLC2A1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1314">
+      <c r="A1314" t="inlineStr">
+        <is>
+          <t>DERA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315" t="inlineStr">
+        <is>
+          <t>PARP15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1316">
+      <c r="A1316" t="inlineStr">
+        <is>
+          <t>HELZ2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1317">
+      <c r="A1317" t="inlineStr">
+        <is>
+          <t>GPHN</t>
+        </is>
+      </c>
+    </row>
+    <row r="1318">
+      <c r="A1318" t="inlineStr">
+        <is>
+          <t>PARP14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1319">
+      <c r="A1319" t="inlineStr">
+        <is>
+          <t>UGT1A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1320">
+      <c r="A1320" t="inlineStr">
+        <is>
+          <t>SUCLG2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1321">
+      <c r="A1321" t="inlineStr">
+        <is>
+          <t>ADCY5</t>
+        </is>
+      </c>
+    </row>
+    <row r="1322">
+      <c r="A1322" t="inlineStr">
+        <is>
+          <t>PPIA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1323">
+      <c r="A1323" t="inlineStr">
+        <is>
+          <t>RXRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1324">
+      <c r="A1324" t="inlineStr">
+        <is>
+          <t>GMPS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1325">
+      <c r="A1325" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+    </row>
+    <row r="1326">
+      <c r="A1326" t="inlineStr">
+        <is>
+          <t>CASR</t>
+        </is>
+      </c>
+    </row>
+    <row r="1327">
+      <c r="A1327" t="inlineStr">
+        <is>
+          <t>ADH7</t>
+        </is>
+      </c>
+    </row>
+    <row r="1328">
+      <c r="A1328" t="inlineStr">
+        <is>
+          <t>PHC3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1329">
+      <c r="A1329" t="inlineStr">
+        <is>
+          <t>AWAT2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1330">
+      <c r="A1330" t="inlineStr">
+        <is>
+          <t>TAS2R50</t>
+        </is>
+      </c>
+    </row>
+    <row r="1331">
+      <c r="A1331" t="inlineStr">
+        <is>
+          <t>HARS1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1332">
+      <c r="A1332" t="inlineStr">
+        <is>
+          <t>CXCL2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1333">
+      <c r="A1333" t="inlineStr">
+        <is>
+          <t>SPCS3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1334">
+      <c r="A1334" t="inlineStr">
+        <is>
+          <t>RIMS1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1335">
+      <c r="A1335" t="inlineStr">
+        <is>
+          <t>CES5A</t>
+        </is>
+      </c>
+    </row>
+    <row r="1336">
+      <c r="A1336" t="inlineStr">
+        <is>
+          <t>CCNC</t>
+        </is>
+      </c>
+    </row>
+    <row r="1337">
+      <c r="A1337" t="inlineStr">
+        <is>
+          <t>PTDSS1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1338">
+      <c r="A1338" t="inlineStr">
+        <is>
+          <t>IGLL5</t>
+        </is>
+      </c>
+    </row>
+    <row r="1339">
+      <c r="A1339" t="inlineStr">
+        <is>
+          <t>NTRK1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1340">
+      <c r="A1340" t="inlineStr">
+        <is>
+          <t>HSF1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1341">
+      <c r="A1341" t="inlineStr">
+        <is>
+          <t>TAS2R43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1342">
+      <c r="A1342" t="inlineStr">
+        <is>
+          <t>NAALAD2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1343">
+      <c r="A1343" t="inlineStr">
+        <is>
+          <t>KDM2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="1344">
+      <c r="A1344" t="inlineStr">
+        <is>
+          <t>GRK6</t>
+        </is>
+      </c>
+    </row>
+    <row r="1345">
+      <c r="A1345" t="inlineStr">
+        <is>
+          <t>GPR68</t>
+        </is>
+      </c>
+    </row>
+    <row r="1346">
+      <c r="A1346" t="inlineStr">
+        <is>
+          <t>SLC6A5</t>
+        </is>
+      </c>
+    </row>
+    <row r="1347">
+      <c r="A1347" t="inlineStr">
+        <is>
+          <t>ACER3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1348">
+      <c r="A1348" t="inlineStr">
+        <is>
+          <t>TXNRD1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1349">
+      <c r="A1349" t="inlineStr">
+        <is>
+          <t>TAS2R46</t>
+        </is>
+      </c>
+    </row>
+    <row r="1350">
+      <c r="A1350" t="inlineStr">
+        <is>
+          <t>HCAR3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1351">
+      <c r="A1351" t="inlineStr">
+        <is>
+          <t>MDH1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1352">
+      <c r="A1352" t="inlineStr">
+        <is>
+          <t>PSMD9</t>
+        </is>
+      </c>
+    </row>
+    <row r="1353">
+      <c r="A1353" t="inlineStr">
+        <is>
+          <t>VARS2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1354">
+      <c r="A1354" t="inlineStr">
+        <is>
+          <t>CCR3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1355">
+      <c r="A1355" t="inlineStr">
+        <is>
+          <t>TAS2R20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1356">
+      <c r="A1356" t="inlineStr">
+        <is>
+          <t>HPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="1357">
+      <c r="A1357" t="inlineStr">
+        <is>
+          <t>TAS2R14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1358">
+      <c r="A1358" t="inlineStr">
+        <is>
+          <t>BCAT1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1359">
+      <c r="A1359" t="inlineStr">
+        <is>
+          <t>CES4A</t>
+        </is>
+      </c>
+    </row>
+    <row r="1360">
+      <c r="A1360" t="inlineStr">
+        <is>
+          <t>SLC1A5</t>
+        </is>
+      </c>
+    </row>
+    <row r="1361">
+      <c r="A1361" t="inlineStr">
+        <is>
+          <t>TAS2R30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1362">
+      <c r="A1362" t="inlineStr">
+        <is>
+          <t>CUL2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1363">
+      <c r="A1363" t="inlineStr">
+        <is>
+          <t>LDHA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1364">
+      <c r="A1364" t="inlineStr">
+        <is>
+          <t>SLC5A8</t>
+        </is>
+      </c>
+    </row>
+    <row r="1365">
+      <c r="A1365" t="inlineStr">
+        <is>
+          <t>MMAB</t>
+        </is>
+      </c>
+    </row>
+    <row r="1366">
+      <c r="A1366" t="inlineStr"/>
+    </row>
+    <row r="1367">
+      <c r="A1367" t="inlineStr">
+        <is>
+          <t>MGAM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="A1368" t="inlineStr">
+        <is>
+          <t>PAH</t>
+        </is>
+      </c>
+    </row>
+    <row r="1369">
+      <c r="A1369" t="inlineStr">
+        <is>
+          <t>TAS2R38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1370">
+      <c r="A1370" t="inlineStr">
+        <is>
+          <t>ASPG</t>
+        </is>
+      </c>
+    </row>
+    <row r="1371">
+      <c r="A1371" t="inlineStr"/>
+    </row>
+    <row r="1372">
+      <c r="A1372" t="inlineStr">
+        <is>
+          <t>RGS6</t>
+        </is>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373" t="inlineStr">
+        <is>
+          <t>MC1R</t>
+        </is>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374" t="inlineStr">
+        <is>
+          <t>B2M</t>
+        </is>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375" t="inlineStr">
+        <is>
+          <t>GALK2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376" t="inlineStr">
+        <is>
+          <t>LDLR</t>
+        </is>
+      </c>
+    </row>
+    <row r="1377">
+      <c r="A1377" t="inlineStr">
+        <is>
+          <t>STRA6</t>
+        </is>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="A1378" t="inlineStr">
+        <is>
+          <t>NUP88</t>
+        </is>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="A1379" t="inlineStr">
+        <is>
+          <t>TRPV1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" t="inlineStr">
+        <is>
+          <t>S1PR2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" t="inlineStr">
+        <is>
+          <t>GIPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="1382">
+      <c r="A1382" t="inlineStr">
+        <is>
+          <t>SEC11C</t>
+        </is>
+      </c>
+    </row>
+    <row r="1383">
+      <c r="A1383" t="inlineStr">
+        <is>
+          <t>DEDD2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384" t="inlineStr">
+        <is>
+          <t>SARS2</t>
         </is>
       </c>
     </row>
